--- a/public/RELACION_DE_INGRESOS_20210131.xlsx
+++ b/public/RELACION_DE_INGRESOS_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40F0A661-690C-4259-9F5B-142EAD01FCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F40646A-5DEE-45D2-B2E2-7A26B7412FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8AD2C49F-7A64-47C8-B6F9-94E32FB6971B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="15912" windowHeight="8172" xr2:uid="{8AD2C49F-7A64-47C8-B6F9-94E32FB6971B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -63,9 +54,6 @@
     <t>Numero_reconocimiento</t>
   </si>
   <si>
-    <t>Nit_tercero</t>
-  </si>
-  <si>
     <t>Nombre_tercero</t>
   </si>
   <si>
@@ -109,6 +97,9 @@
   </si>
   <si>
     <t>Banco ADD</t>
+  </si>
+  <si>
+    <t>identificacion_tercero</t>
   </si>
 </sst>
 </file>
@@ -512,28 +503,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E5D3C3-1C85-4A52-8D2A-02C4843C4CFF}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,51 +554,51 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>9008001258</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="1">
         <v>8001258</v>
@@ -618,10 +610,10 @@
         <v>908801258</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="1">
         <v>199988005.40000001</v>
@@ -630,7 +622,7 @@
         <v>1887868413</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="1">
         <v>5887868413</v>
